--- a/Documentation/easytodolist-controller-action-tests.xlsx
+++ b/Documentation/easytodolist-controller-action-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\source\repos\EasyTodoListApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D2DEAA-0ACC-4B9F-B406-7A366241FD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767612CE-2379-474A-BBBA-B5FE5B18ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A0591EE0-A6DF-47A4-99AD-8CDD40FD5273}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -74,18 +74,6 @@
     <t>Create todo with all whitespace description returns bad request with validation error message</t>
   </si>
   <si>
-    <t>Create todo with null due date returns created with the new todo in the response body and the uri in the response headers</t>
-  </si>
-  <si>
-    <t>Create todo with yesterday due date returns created with the new todo in the response body and the uri in the response headers</t>
-  </si>
-  <si>
-    <t>Create todo with today due date returns created with the new todo in the response body and the uri in the response headers</t>
-  </si>
-  <si>
-    <t>Create todo with tomorrow due date returns created with the new todo in the response body and the uri in the response headers</t>
-  </si>
-  <si>
     <t>New todos have a CreateDate</t>
   </si>
   <si>
@@ -95,21 +83,9 @@
     <t>Create todo with description.length &gt; maxLength returns bad request with validation error message</t>
   </si>
   <si>
-    <t>Delete todo with invalid guid returns bad request with error message</t>
-  </si>
-  <si>
-    <t>Delete todo with valid guid for todo that is important and complete returns bad request with error message</t>
-  </si>
-  <si>
-    <t>Delete todo with valid guid for todo that is not important and not complete returns bad request with error message</t>
-  </si>
-  <si>
     <t>Delete todo with valid guid for todo that is important and not complete returns bad request with error message</t>
   </si>
   <si>
-    <t>Delete todo with valid guid for todo that is not important and complete returns bad request with error message</t>
-  </si>
-  <si>
     <t>All todos complete</t>
   </si>
   <si>
@@ -152,35 +128,77 @@
     <t>Update todo with valid description returns no content</t>
   </si>
   <si>
-    <t>Update todo with null due date returns no content</t>
-  </si>
-  <si>
-    <t>Update todo with yesterday due date returns no content</t>
-  </si>
-  <si>
-    <t>Update todo with today due date returns no content</t>
-  </si>
-  <si>
-    <t>Update todo with tomorrow due date returns no content</t>
-  </si>
-  <si>
     <t>Updated todos have an UpdateDate</t>
   </si>
   <si>
-    <t>Update todo with invalid guid returns bad request with error message</t>
-  </si>
-  <si>
     <t>Update todo with valid guid for todo that is complete returns bad request with error message</t>
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Delete todo with invalid guid returns not found</t>
+  </si>
+  <si>
+    <t>Update todo with invalid guid returns not found</t>
+  </si>
+  <si>
+    <t>Delete todo with valid guid for todo that is important and complete returns no content</t>
+  </si>
+  <si>
+    <t>Delete todo with valid guid for todo that is not important and not complete returns no content</t>
+  </si>
+  <si>
+    <t>Delete todo with valid guid for todo that is not important and complete returns no content</t>
+  </si>
+  <si>
+    <t>All tests run, debugged and passed Wednesday January 1st 2025!</t>
+  </si>
+  <si>
+    <t>Get todo by id</t>
+  </si>
+  <si>
+    <t>With valid guid returns ok with the todo in the response body</t>
+  </si>
+  <si>
+    <t>With invalid guid returns not found</t>
+  </si>
+  <si>
+    <t>When none returns not found</t>
+  </si>
+  <si>
+    <t>Create todo with valid description and null due date returns created with the new todo in the response body and the uri in the response headers</t>
+  </si>
+  <si>
+    <t>Create todo with valid description and today due date returns created with the new todo in the response body and the uri in the response headers</t>
+  </si>
+  <si>
+    <t>Create todo with valid description and tomorrow due date returns created with the new todo in the response body and the uri in the response headers</t>
+  </si>
+  <si>
+    <t>Create todo with valid description and yesterday due date returns created with the new todo in the response body and the uri in the response headers</t>
+  </si>
+  <si>
+    <t>Update todo with valid description and null due date returns no content</t>
+  </si>
+  <si>
+    <t>Update todo with valid description and today due date returns no content</t>
+  </si>
+  <si>
+    <t>Update todo with valid description and tomorrow due date returns no content</t>
+  </si>
+  <si>
+    <t>Update todo with valid description and  yesterday due date returns no content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +221,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -236,16 +266,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,11 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBE421D-5756-4FF2-B922-63EF019DCF21}">
-  <dimension ref="B3:E45"/>
+  <dimension ref="B3:E50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -595,7 +638,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -604,12 +647,12 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -618,10 +661,12 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -630,10 +675,12 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -642,485 +689,608 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>20</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
         <v>24</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>24</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
+      <c r="B37" s="5">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="36" x14ac:dyDescent="0.35">
+      <c r="B42" s="5">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5">
         <v>40</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <v>36</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="3">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="3">
-        <v>41</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
-        <v>42</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D45" xr:uid="{FEBE421D-5756-4FF2-B922-63EF019DCF21}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D45">
-      <sortCondition ref="B3:B45"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:D45">
-    <sortCondition ref="D4:D45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E48">
+    <sortCondition ref="B4:B48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>